--- a/knapsack_ga/results/benchmarks.xlsx
+++ b/knapsack_ga/results/benchmarks.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,22 +453,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Valor Total</t>
+          <t>Média Valor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Peso Total</t>
+          <t>Desvio Valor</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tempo de Execução (segundos)</t>
+          <t>Melhor Valor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Número de Gerações</t>
+          <t>Pior Valor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Média Peso</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo Médio (s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gerações</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Execuções</t>
         </is>
       </c>
     </row>
@@ -473,16 +497,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>37</v>
+        <v>35.9</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>13</v>
+        <v>3.14</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.06900000000000001</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +526,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>78</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>21</v>
+        <v>15.55</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.078</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -507,16 +555,28 @@
         <v>1000</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5781</v>
+        <v>5850.9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2695</v>
+        <v>126.81</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5.504</v>
+        <v>6013</v>
       </c>
       <c r="E4" s="2" t="n">
+        <v>5651</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2723.3</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1.3418</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +584,28 @@
         <v>10000</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>54001</v>
+        <v>54335.1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>27705</v>
+        <v>380.29</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>73.015</v>
+        <v>54895</v>
       </c>
       <c r="E5" s="2" t="n">
+        <v>53944</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>27356.5</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>13.0233</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
